--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459344.211955702</v>
+        <v>1457152.334802528</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942699</v>
+        <v>28215137.919427</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5019041.54381666</v>
+        <v>5019041.543816661</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841096</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -743,64 +743,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E3" t="n">
+      <c r="T3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="U3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="W3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.18661160258025</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -980,52 +980,52 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>15.18661160258025</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="8">
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>36.39025468426208</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,61 +1305,61 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="Y10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>210.6716517683834</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>274.6454768741596</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541631</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>39.92717557336805</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>418.5727893629817</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.9513258013682</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541631</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>181.7593585364828</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>380.377287229512</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2055,10 +2055,10 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T19" t="n">
-        <v>240.6750725561512</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896226</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>311.2059341401206</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>380.377287229512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2374,7 +2374,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948839</v>
       </c>
       <c r="G26" t="n">
         <v>395.9513258013682</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2848,7 +2848,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>379.2108865611135</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>202.0339352599813</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3480,10 +3480,10 @@
         <v>240.675072556151</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896231</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482737</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>380.7630670759391</v>
+        <v>329.0392464568355</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541631</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>334.3027177663104</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,7 +3757,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>108.8093040361632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3954,7 +3954,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6136207896231</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>338.5533586540756</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>380.377287229512</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117693</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
         <v>88.73594738064259</v>
@@ -4333,22 +4333,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="M2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4406,55 +4406,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M3" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N3" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.64521196358022</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="C4" t="n">
         <v>18.64521196358022</v>
@@ -4473,13 +4473,13 @@
         <v>18.64521196358022</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4491,22 +4491,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="N4" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="T4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="U4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="V4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="W4" t="n">
         <v>102.1098645848476</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
+        <v>102.1098645848476</v>
+      </c>
+      <c r="Y4" t="n">
         <v>60.37753827421391</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18.64521196358022</v>
-      </c>
-      <c r="V4" t="n">
-        <v>18.64521196358022</v>
-      </c>
-      <c r="W4" t="n">
-        <v>18.64521196358022</v>
-      </c>
-      <c r="X4" t="n">
-        <v>18.64521196358022</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>18.64521196358022</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4567,22 +4567,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D6" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="E6" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F6" t="n">
         <v>81.79535956884203</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4649,13 +4649,13 @@
         <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N6" t="n">
         <v>70.27072642131186</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="7">
@@ -4719,28 +4719,28 @@
         <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4761,16 +4761,16 @@
         <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="8">
@@ -4807,16 +4807,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
         <v>83.45630615600527</v>
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>85.10890627790634</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>126.0107592949584</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0107592949584</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N9" t="n">
-        <v>126.0107592949584</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O9" t="n">
-        <v>165.2600121901094</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>128.5021791757032</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N10" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P10" t="n">
         <v>165.2600121901094</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1359.910449672591</v>
+        <v>934.1780600656494</v>
       </c>
       <c r="C11" t="n">
-        <v>921.7679768560143</v>
+        <v>496.0355872490728</v>
       </c>
       <c r="D11" t="n">
-        <v>921.7679768560143</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="E11" t="n">
-        <v>487.9932320143095</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F11" t="n">
         <v>60.12580242351726</v>
@@ -5053,13 +5053,13 @@
         <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
-        <v>1576.296055885762</v>
+        <v>2067.299534477297</v>
       </c>
       <c r="O11" t="n">
-        <v>1815.247136257287</v>
+        <v>2390.960846925826</v>
       </c>
       <c r="P11" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q11" t="n">
         <v>2748.049925732253</v>
@@ -5074,19 +5074,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2482.77215718845</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V11" t="n">
-        <v>2205.352483578188</v>
+        <v>2379.261750026545</v>
       </c>
       <c r="W11" t="n">
-        <v>2205.352483578188</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="X11" t="n">
-        <v>1786.210020157499</v>
+        <v>1555.263832016889</v>
       </c>
       <c r="Y11" t="n">
-        <v>1786.210020157499</v>
+        <v>1146.977708316542</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160066</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,7 +5178,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D13" t="n">
         <v>774.8049356004817</v>
@@ -5193,7 +5193,7 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2663519946449</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I13" t="n">
         <v>60.12580242351726</v>
@@ -5211,10 +5211,10 @@
         <v>1612.343363070976</v>
       </c>
       <c r="N13" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O13" t="n">
-        <v>2661.538565504743</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P13" t="n">
         <v>2777.215599969509</v>
@@ -5238,7 +5238,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X13" t="n">
         <v>1532.482929320613</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1752.561963569919</v>
+        <v>898.2191093828901</v>
       </c>
       <c r="C14" t="n">
-        <v>1752.561963569919</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="D14" t="n">
-        <v>1316.652178744363</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8774339026586</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F14" t="n">
         <v>460.0766365663134</v>
@@ -5278,22 +5278,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L14" t="n">
-        <v>638.9641820350653</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M14" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N14" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P14" t="n">
         <v>2048.4012797357</v>
@@ -5308,22 +5308,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="W14" t="n">
-        <v>3006.290121175863</v>
+        <v>1765.978176881066</v>
       </c>
       <c r="X14" t="n">
-        <v>2587.147657755173</v>
+        <v>1346.835713460376</v>
       </c>
       <c r="Y14" t="n">
-        <v>2178.861534054827</v>
+        <v>938.5495897600296</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K15" t="n">
-        <v>673.7775884730672</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L15" t="n">
-        <v>838.5347795517418</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283351</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,28 +5415,28 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G16" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946449</v>
       </c>
       <c r="I16" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K16" t="n">
         <v>399.7727096942242</v>
@@ -5475,7 +5475,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2195.771068640943</v>
+        <v>1979.41554615116</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628595824366</v>
+        <v>1541.273073334583</v>
       </c>
       <c r="D17" t="n">
-        <v>1321.718810998811</v>
+        <v>1105.363288509027</v>
       </c>
       <c r="E17" t="n">
-        <v>887.9440661571057</v>
+        <v>671.5885436673225</v>
       </c>
       <c r="F17" t="n">
-        <v>460.0766365663134</v>
+        <v>243.7211140765302</v>
       </c>
       <c r="G17" t="n">
-        <v>60.12580242351726</v>
+        <v>243.7211140765302</v>
       </c>
       <c r="H17" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I17" t="n">
         <v>114.3925393395051</v>
@@ -5533,34 +5533,34 @@
         <v>1815.247136257287</v>
       </c>
       <c r="P17" t="n">
-        <v>2559.303941248313</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
         <v>2748.049925732253</v>
       </c>
       <c r="R17" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440473</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440473</v>
       </c>
       <c r="V17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440473</v>
       </c>
       <c r="W17" t="n">
-        <v>3006.290121175863</v>
+        <v>2387.701669851506</v>
       </c>
       <c r="X17" t="n">
-        <v>3006.290121175863</v>
+        <v>2387.701669851506</v>
       </c>
       <c r="Y17" t="n">
-        <v>2622.07063912585</v>
+        <v>1979.41554615116</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H18" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160066</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M18" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5670,40 +5670,40 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J19" t="n">
         <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434335</v>
+        <v>399.7727096942237</v>
       </c>
       <c r="L19" t="n">
-        <v>744.3689516438141</v>
+        <v>912.5617265081459</v>
       </c>
       <c r="M19" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N19" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607995</v>
       </c>
       <c r="O19" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055533</v>
       </c>
       <c r="P19" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.40837483384</v>
       </c>
       <c r="Q19" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R19" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S19" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T19" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U19" t="n">
         <v>2336.856596530478</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2195.771068640943</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C20" t="n">
-        <v>1757.628595824366</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D20" t="n">
-        <v>1321.718810998811</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E20" t="n">
-        <v>887.9440661571057</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F20" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G20" t="n">
         <v>60.12580242351726</v>
@@ -5752,52 +5752,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>638.9641820350653</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
         <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2641.262268403743</v>
       </c>
       <c r="W20" t="n">
-        <v>3006.290121175863</v>
+        <v>2641.262268403743</v>
       </c>
       <c r="X20" t="n">
-        <v>3006.290121175863</v>
+        <v>2222.119804983054</v>
       </c>
       <c r="Y20" t="n">
-        <v>2622.07063912585</v>
+        <v>2222.119804983054</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H21" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J21" t="n">
         <v>434.074449729428</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C22" t="n">
-        <v>940.6829283989587</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G22" t="n">
         <v>263.3976759832894</v>
@@ -5910,25 +5910,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434335</v>
+        <v>399.7727096942247</v>
       </c>
       <c r="L22" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081468</v>
       </c>
       <c r="M22" t="n">
-        <v>1612.343363070976</v>
+        <v>1471.766030621768</v>
       </c>
       <c r="N22" t="n">
-        <v>2151.951474057205</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,19 +5943,19 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X22" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E23" t="n">
         <v>1203.245171880542</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
         <v>375.4269081469535</v>
@@ -5995,22 +5995,22 @@
         <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1949.559173034901</v>
+        <v>2324.624498801546</v>
       </c>
       <c r="M23" t="n">
-        <v>2198.583033033189</v>
+        <v>2573.648358799834</v>
       </c>
       <c r="N23" t="n">
-        <v>2562.174869340669</v>
+        <v>2826.701685199324</v>
       </c>
       <c r="O23" t="n">
-        <v>3781.305616282501</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
-        <v>4813.554709884365</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R23" t="n">
         <v>5055.790700612876</v>
@@ -6022,19 +6022,19 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V23" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>523.4900889429852</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>646.0204495922845</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047469</v>
+        <v>810.7776406709592</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988998</v>
+        <v>1003.041511565112</v>
       </c>
       <c r="N24" t="n">
-        <v>875.8357100566178</v>
+        <v>1200.39403502283</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.374713075401</v>
+        <v>1380.933038041613</v>
       </c>
       <c r="P24" t="n">
-        <v>1201.273179597638</v>
+        <v>1525.83150456385</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1622.692292143968</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,22 +6147,22 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K25" t="n">
-        <v>494.760368567484</v>
+        <v>440.7627212829644</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.549385381406</v>
+        <v>953.5517380968865</v>
       </c>
       <c r="M25" t="n">
-        <v>1566.753689495027</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N25" t="n">
-        <v>2106.361800481256</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O25" t="n">
-        <v>2615.948891928794</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P25" t="n">
         <v>2986.398386422581</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C26" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I26" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>2541.809773606987</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M26" t="n">
-        <v>3793.117972008674</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N26" t="n">
-        <v>4046.171298408164</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O26" t="n">
-        <v>4285.122378779689</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P26" t="n">
-        <v>4489.061597548158</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X26" t="n">
         <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E27" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L27" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566178</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6384,7 +6384,7 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
         <v>440.7627212829644</v>
@@ -6451,49 +6451,49 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I29" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>456.151283247122</v>
+        <v>1467.945294621543</v>
       </c>
       <c r="L29" t="n">
-        <v>679.9541936238056</v>
+        <v>2719.25349302323</v>
       </c>
       <c r="M29" t="n">
-        <v>1593.468692229527</v>
+        <v>2968.277353021518</v>
       </c>
       <c r="N29" t="n">
-        <v>1846.522018629018</v>
+        <v>3221.330679421008</v>
       </c>
       <c r="O29" t="n">
-        <v>3065.65276557085</v>
+        <v>4440.461426362839</v>
       </c>
       <c r="P29" t="n">
-        <v>4097.901859172714</v>
+        <v>4644.400645131308</v>
       </c>
       <c r="Q29" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
         <v>4532.272736625463</v>
@@ -6505,7 +6505,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
         <v>2937.371744849287</v>
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K30" t="n">
-        <v>714.7676000618079</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L30" t="n">
-        <v>879.5247911404825</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M30" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N30" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>275.750671990825</v>
       </c>
       <c r="K32" t="n">
-        <v>456.151283247122</v>
+        <v>638.8444873724033</v>
       </c>
       <c r="L32" t="n">
-        <v>679.9541936238056</v>
+        <v>1890.15268577409</v>
       </c>
       <c r="M32" t="n">
-        <v>1744.547551550694</v>
+        <v>2139.176545772378</v>
       </c>
       <c r="N32" t="n">
-        <v>2995.855749952381</v>
+        <v>3390.484744174064</v>
       </c>
       <c r="O32" t="n">
-        <v>3234.806830323906</v>
+        <v>4609.615491115896</v>
       </c>
       <c r="P32" t="n">
-        <v>4267.055923925771</v>
+        <v>4813.554709884364</v>
       </c>
       <c r="Q32" t="n">
-        <v>4966.704569922324</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R32" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E33" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F33" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G33" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H33" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L33" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M33" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N33" t="n">
-        <v>875.8357100566178</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1795.820234498146</v>
+        <v>1362.045489656442</v>
       </c>
       <c r="C35" t="n">
-        <v>1357.67776168157</v>
+        <v>923.903016839865</v>
       </c>
       <c r="D35" t="n">
-        <v>921.7679768560143</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="E35" t="n">
         <v>487.9932320143095</v>
       </c>
       <c r="F35" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="G35" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="H35" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I35" t="n">
         <v>114.3925393395051</v>
@@ -6961,28 +6961,28 @@
         <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U35" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V35" t="n">
-        <v>3006.290121175863</v>
+        <v>2379.261750026544</v>
       </c>
       <c r="W35" t="n">
-        <v>3006.290121175863</v>
+        <v>1974.406295437577</v>
       </c>
       <c r="X35" t="n">
-        <v>2587.147657755173</v>
+        <v>1770.331613356788</v>
       </c>
       <c r="Y35" t="n">
-        <v>2178.861534054827</v>
+        <v>1362.045489656442</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H36" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J36" t="n">
-        <v>482.5000773542449</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K36" t="n">
-        <v>605.0304380035443</v>
+        <v>280.472113037332</v>
       </c>
       <c r="L36" t="n">
-        <v>769.7876290822189</v>
+        <v>445.2293041160066</v>
       </c>
       <c r="M36" t="n">
-        <v>962.0514999763718</v>
+        <v>637.4931750101595</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.40402343409</v>
+        <v>834.8456984678776</v>
       </c>
       <c r="O36" t="n">
-        <v>1339.943026452873</v>
+        <v>1015.384701486661</v>
       </c>
       <c r="P36" t="n">
-        <v>1484.84149297511</v>
+        <v>1160.283168008898</v>
       </c>
       <c r="Q36" t="n">
-        <v>1581.702280555228</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,13 +7074,13 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004815</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F37" t="n">
         <v>428.3398778129751</v>
@@ -7092,40 +7092,40 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I37" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J37" t="n">
         <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>540.3500421434335</v>
+        <v>265.591587572298</v>
       </c>
       <c r="L37" t="n">
-        <v>1053.139058957355</v>
+        <v>778.3806043862202</v>
       </c>
       <c r="M37" t="n">
-        <v>1612.343363070976</v>
+        <v>1337.584908499841</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>1877.19301948607</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2386.780110933608</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2811.227252711915</v>
       </c>
       <c r="Q37" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R37" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S37" t="n">
         <v>2858.360327182776</v>
       </c>
       <c r="T37" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U37" t="n">
         <v>2336.856596530478</v>
@@ -7134,7 +7134,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W37" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X37" t="n">
         <v>1532.482929320613</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1367.952804907354</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C38" t="n">
-        <v>929.8103320907776</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D38" t="n">
-        <v>493.9005472652221</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E38" t="n">
-        <v>60.12580242351726</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F38" t="n">
         <v>60.12580242351726</v>
@@ -7201,25 +7201,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W38" t="n">
-        <v>2621.680962513298</v>
+        <v>2623.248821619182</v>
       </c>
       <c r="X38" t="n">
-        <v>2202.538499092609</v>
+        <v>2204.106358198493</v>
       </c>
       <c r="Y38" t="n">
-        <v>1794.252375392262</v>
+        <v>1795.820234498146</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>86.25132408734105</v>
       </c>
       <c r="J39" t="n">
-        <v>482.5000773542449</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K39" t="n">
-        <v>605.0304380035443</v>
+        <v>280.472113037332</v>
       </c>
       <c r="L39" t="n">
-        <v>769.7876290822189</v>
+        <v>445.2293041160066</v>
       </c>
       <c r="M39" t="n">
-        <v>962.0514999763718</v>
+        <v>637.4931750101595</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.40402343409</v>
+        <v>834.8456984678776</v>
       </c>
       <c r="O39" t="n">
-        <v>1339.943026452873</v>
+        <v>1015.384701486661</v>
       </c>
       <c r="P39" t="n">
-        <v>1484.84149297511</v>
+        <v>1160.283168008898</v>
       </c>
       <c r="Q39" t="n">
-        <v>1581.702280555228</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7311,7 +7311,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C40" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989591</v>
       </c>
       <c r="D40" t="n">
         <v>774.8049356004817</v>
@@ -7326,7 +7326,7 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H40" t="n">
-        <v>129.2663519946449</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I40" t="n">
         <v>60.12580242351726</v>
@@ -7338,16 +7338,16 @@
         <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438141</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N40" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O40" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P40" t="n">
         <v>2777.215599969509</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2470.082162775639</v>
+        <v>2195.771068640943</v>
       </c>
       <c r="C41" t="n">
-        <v>2031.939689959062</v>
+        <v>1757.628595824366</v>
       </c>
       <c r="D41" t="n">
-        <v>1596.029905133506</v>
+        <v>1321.718810998811</v>
       </c>
       <c r="E41" t="n">
-        <v>1162.255160291802</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="F41" t="n">
-        <v>734.3877307010093</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,25 +7411,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K41" t="n">
-        <v>850.4159591112995</v>
+        <v>415.1612716583817</v>
       </c>
       <c r="L41" t="n">
-        <v>1074.218869487983</v>
+        <v>638.9641820350653</v>
       </c>
       <c r="M41" t="n">
-        <v>1323.242729486271</v>
+        <v>887.9880420333534</v>
       </c>
       <c r="N41" t="n">
-        <v>1576.296055885762</v>
+        <v>1141.041368432844</v>
       </c>
       <c r="O41" t="n">
-        <v>1815.247136257287</v>
+        <v>1850.843260703269</v>
       </c>
       <c r="P41" t="n">
-        <v>2559.303941248313</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q41" t="n">
         <v>2748.049925732253</v>
@@ -7441,22 +7441,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T41" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U41" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V41" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="W41" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="X41" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="Y41" t="n">
-        <v>2896.381733260546</v>
+        <v>2533.450581536206</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J42" t="n">
         <v>434.074449729428</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C43" t="n">
-        <v>940.6829283989596</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G43" t="n">
         <v>263.3976759832894</v>
@@ -7602,19 +7602,19 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U43" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V43" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W43" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X43" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y43" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2195.771068640943</v>
+        <v>1359.910449672591</v>
       </c>
       <c r="C44" t="n">
-        <v>1757.628595824366</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.718810998811</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E44" t="n">
-        <v>887.9440661571057</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F44" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="G44" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="H44" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I44" t="n">
         <v>114.3925393395051</v>
@@ -7666,34 +7666,34 @@
         <v>1815.247136257287</v>
       </c>
       <c r="P44" t="n">
-        <v>2559.303941248313</v>
+        <v>2048.401279735699</v>
       </c>
       <c r="Q44" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732252</v>
       </c>
       <c r="R44" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828106</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828106</v>
       </c>
       <c r="U44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828106</v>
       </c>
       <c r="V44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828106</v>
       </c>
       <c r="W44" t="n">
-        <v>3006.290121175863</v>
+        <v>2613.638607278535</v>
       </c>
       <c r="X44" t="n">
-        <v>3006.290121175863</v>
+        <v>2194.496143857846</v>
       </c>
       <c r="Y44" t="n">
-        <v>2622.07063912585</v>
+        <v>1786.210020157499</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G45" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H45" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I45" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734102</v>
       </c>
       <c r="J45" t="n">
-        <v>482.5000773542449</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K45" t="n">
-        <v>605.0304380035443</v>
+        <v>673.7775884730672</v>
       </c>
       <c r="L45" t="n">
-        <v>769.7876290822189</v>
+        <v>838.5347795517418</v>
       </c>
       <c r="M45" t="n">
-        <v>962.0514999763718</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.40402343409</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O45" t="n">
-        <v>1339.943026452873</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P45" t="n">
-        <v>1484.84149297511</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q45" t="n">
         <v>1650.449431024751</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915733</v>
       </c>
       <c r="C46" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989581</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004808</v>
       </c>
       <c r="E46" t="n">
         <v>605.0469318512189</v>
@@ -7803,7 +7803,7 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I46" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J46" t="n">
         <v>191.6817584242374</v>
@@ -7812,46 +7812,46 @@
         <v>540.3500421434335</v>
       </c>
       <c r="L46" t="n">
-        <v>744.3689516438141</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M46" t="n">
-        <v>1303.573255757435</v>
+        <v>1303.573255757434</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743664</v>
+        <v>1843.181366743663</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.7684581912</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2777.215599969508</v>
       </c>
       <c r="Q46" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R46" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S46" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T46" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U46" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530477</v>
       </c>
       <c r="V46" t="n">
-        <v>2049.901088400909</v>
+        <v>2049.901088400908</v>
       </c>
       <c r="W46" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X46" t="n">
-        <v>1532.482929320613</v>
+        <v>1532.482929320612</v>
       </c>
       <c r="Y46" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.06325863472</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,25 +8139,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8297,16 +8297,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>41.31500304752736</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8455,19 +8455,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>495.9631096884195</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>85.565890986873</v>
       </c>
       <c r="P11" t="n">
-        <v>29.51002495954026</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>134.837066509195</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>39.1280673301012</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>469.1612244069322</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29.51002495954026</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5364869918447</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495953981</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.95568125856744</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>135.5364869918442</v>
       </c>
       <c r="L19" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>469.1612244069322</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.51002495954071</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>278.92191650646</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>112.0193352648889</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>378.8538644107523</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>111.655060513121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>135.5364869918447</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>296.4739865513357</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>378.8538644107516</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>156.9081288718698</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>252.5949739201397</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>222.9907144309253</v>
+        <v>135.5364869918447</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>582.3629534560641</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1037.884129318185</v>
       </c>
       <c r="M29" t="n">
-        <v>671.2026652600341</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201397</v>
       </c>
       <c r="K30" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9907144309253</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>184.5385900255367</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1037.884129318185</v>
       </c>
       <c r="M32" t="n">
-        <v>823.8075736652531</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1008.338254547673</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201397</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>222.9907144309253</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>29.51002495954026</v>
+        <v>29.51002495953981</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>397.2782580158942</v>
       </c>
       <c r="R36" t="n">
-        <v>69.44156613083123</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10755,7 +10755,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>134.837066509195</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>135.536486991844</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>397.2782580158942</v>
       </c>
       <c r="R39" t="n">
-        <v>69.44156613083123</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>475.6068807059594</v>
       </c>
       <c r="P41" t="n">
-        <v>545.5733194167251</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.95568125856744</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>278.92191650646</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495953935</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.95568125856744</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>397.2782580158943</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.44156613083123</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781521</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>211.3649230116753</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.9513258013682</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>84.34530369135217</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.1093992066906</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>5.015965931902656</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
-        <v>271.5679831933489</v>
+        <v>89.8086246568661</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.5154774752252</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>23.82597523383106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
         <v>271.5679831933489</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5956667680352</v>
@@ -24028,16 +24028,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>47.78484642539109</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.82597523383106</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.82568821894517</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.9171035265011</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.9513258013682</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
@@ -25453,7 +25453,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>20.04383296713786</v>
+        <v>71.76765358624147</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>87.73385701374826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>295.3939584271799</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.5956667680352</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>62.25354138900138</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.82597523383106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369366.9419825378</v>
+        <v>369366.9419825379</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369366.9419825377</v>
+        <v>369366.9419825379</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369366.9419825379</v>
+        <v>369366.9419825377</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
+        <v>509339.953895888</v>
+      </c>
+      <c r="D2" t="n">
+        <v>509339.9538958879</v>
+      </c>
+      <c r="E2" t="n">
+        <v>358975.2204466087</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358975.2204466086</v>
+      </c>
+      <c r="G2" t="n">
+        <v>358975.2204466086</v>
+      </c>
+      <c r="H2" t="n">
+        <v>358975.2204466086</v>
+      </c>
+      <c r="I2" t="n">
         <v>509339.9538958881</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
         <v>509339.9538958881</v>
-      </c>
-      <c r="E2" t="n">
-        <v>358975.2204466086</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358975.2204466085</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358975.2204466085</v>
-      </c>
-      <c r="H2" t="n">
-        <v>358975.2204466085</v>
-      </c>
-      <c r="I2" t="n">
-        <v>509339.9538958882</v>
-      </c>
-      <c r="J2" t="n">
-        <v>509339.9538958882</v>
       </c>
       <c r="K2" t="n">
         <v>509339.9538958882</v>
       </c>
       <c r="L2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="M2" t="n">
+        <v>358975.2204466085</v>
+      </c>
+      <c r="N2" t="n">
         <v>358975.2204466086</v>
-      </c>
-      <c r="N2" t="n">
-        <v>358975.2204466087</v>
       </c>
       <c r="O2" t="n">
         <v>358975.2204466086</v>
       </c>
       <c r="P2" t="n">
-        <v>358975.2204466087</v>
+        <v>358975.2204466086</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836708</v>
+        <v>498352.8259836707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.155921098776163e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961174</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041601</v>
+        <v>49313.08122041604</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302243.7051245433</v>
+        <v>302243.7051245434</v>
       </c>
       <c r="C4" t="n">
         <v>302243.7051245434</v>
@@ -26432,10 +26432,10 @@
         <v>67639.6708859975</v>
       </c>
       <c r="G4" t="n">
-        <v>67639.6708859975</v>
+        <v>67639.67088599748</v>
       </c>
       <c r="H4" t="n">
-        <v>67639.6708859975</v>
+        <v>67639.67088599752</v>
       </c>
       <c r="I4" t="n">
         <v>132478.8553729572</v>
@@ -26450,16 +26450,16 @@
         <v>132478.8553729572</v>
       </c>
       <c r="M4" t="n">
+        <v>67639.67088599748</v>
+      </c>
+      <c r="N4" t="n">
         <v>67639.6708859975</v>
-      </c>
-      <c r="N4" t="n">
-        <v>67639.67088599749</v>
       </c>
       <c r="O4" t="n">
         <v>67639.6708859975</v>
       </c>
       <c r="P4" t="n">
-        <v>67639.67088599749</v>
+        <v>67639.67088599746</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>53463.84704971767</v>
       </c>
       <c r="H5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971768</v>
       </c>
       <c r="I5" t="n">
         <v>84616.25585716027</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26511,7 +26511,7 @@
         <v>53463.84704971767</v>
       </c>
       <c r="P5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
     </row>
     <row r="6">
@@ -26521,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157111.0888197586</v>
+        <v>157111.0888197585</v>
       </c>
       <c r="C6" t="n">
-        <v>170956.696586055</v>
+        <v>170956.6965860549</v>
       </c>
       <c r="D6" t="n">
-        <v>170956.696586055</v>
+        <v>170956.6965860549</v>
       </c>
       <c r="E6" t="n">
-        <v>-260481.1234727774</v>
+        <v>-260876.8201397489</v>
       </c>
       <c r="F6" t="n">
-        <v>237871.7025108933</v>
+        <v>237476.0058439217</v>
       </c>
       <c r="G6" t="n">
-        <v>237871.7025108933</v>
+        <v>237476.0058439216</v>
       </c>
       <c r="H6" t="n">
-        <v>237871.7025108933</v>
+        <v>237476.0058439216</v>
       </c>
       <c r="I6" t="n">
-        <v>155993.5317696533</v>
+        <v>155993.5317696531</v>
       </c>
       <c r="J6" t="n">
-        <v>281435.0200084035</v>
+        <v>281435.0200084034</v>
       </c>
       <c r="K6" t="n">
         <v>292244.8426657707</v>
@@ -26554,16 +26554,16 @@
         <v>292244.8426657707</v>
       </c>
       <c r="M6" t="n">
-        <v>188558.6212904774</v>
+        <v>188162.9246235055</v>
       </c>
       <c r="N6" t="n">
-        <v>237871.7025108935</v>
+        <v>237476.0058439217</v>
       </c>
       <c r="O6" t="n">
-        <v>237871.7025108934</v>
+        <v>237476.0058439217</v>
       </c>
       <c r="P6" t="n">
-        <v>237871.7025108935</v>
+        <v>237476.0058439216</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="G4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26822,7 +26822,7 @@
         <v>1263.947675153219</v>
       </c>
       <c r="M4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="N4" t="n">
         <v>751.5725302939657</v>
@@ -26831,7 +26831,7 @@
         <v>751.5725302939657</v>
       </c>
       <c r="P4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939654</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592533</v>
+        <v>512.3751448592532</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871848</v>
+        <v>197.8823823871849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27463,16 +27463,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W3" t="n">
-        <v>147.0792720398758</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27539,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>152.8738121091899</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>123.316540963949</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="5">
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>48.14098415221586</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>4.928040977687559</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>227.7512255173414</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="8">
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,13 +27985,13 @@
         <v>26.43062849183867</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U9" t="n">
         <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>127.5451075401685</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -34701,13 +34701,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>41.31500304752736</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35175,19 +35175,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480051</v>
+        <v>326.9306186348781</v>
       </c>
       <c r="P11" t="n">
-        <v>235.509235836781</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q11" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R11" t="n">
         <v>260.8486822662721</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
@@ -35503,16 +35503,16 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>543.6403454120932</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q12" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,13 +35579,13 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658876</v>
+        <v>233.1697006794818</v>
       </c>
       <c r="O13" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P13" t="n">
-        <v>116.8454893583489</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
         <v>223.6992063869488</v>
@@ -35646,25 +35646,25 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>720.7004769304556</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836781</v>
       </c>
       <c r="Q14" t="n">
         <v>706.7158040369222</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K15" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939959</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>210.1928800706937</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L16" t="n">
         <v>517.9687038524467</v>
@@ -35901,10 +35901,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>751.5725302939659</v>
+        <v>235.5092358367806</v>
       </c>
       <c r="Q17" t="n">
-        <v>190.6525095797374</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R17" t="n">
         <v>260.8486822662721</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
@@ -35971,10 +35971,10 @@
         <v>166.4214051299745</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4841882120081</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O18" t="n">
         <v>182.3626293119023</v>
@@ -35986,7 +35986,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411314</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749455</v>
+        <v>210.1928800706933</v>
       </c>
       <c r="L19" t="n">
-        <v>206.079706566041</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
@@ -36062,7 +36062,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
         <v>7.689198871994794</v>
@@ -36120,25 +36120,25 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
-        <v>720.7004769304556</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367815</v>
       </c>
       <c r="Q20" t="n">
         <v>706.7158040369222</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J21" t="n">
-        <v>351.3364905475626</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598984</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205079</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M22" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O22" t="n">
-        <v>202.8454385191881</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P22" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
         <v>7.689198871994794</v>
@@ -36363,25 +36363,25 @@
         <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457862</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>367.2644811186669</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
         <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.38941582204424</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299745</v>
@@ -36448,19 +36448,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q24" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749456</v>
+        <v>210.1928800706937</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
         <v>545.0586979658874</v>
@@ -36533,7 +36533,7 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P25" t="n">
-        <v>374.1914085795834</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
         <v>53.80751460479496</v>
@@ -36594,28 +36594,28 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
         <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480051</v>
+        <v>620.2185920587567</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.6049571930398</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R26" t="n">
         <v>260.8486822662717</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
@@ -36688,16 +36688,16 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>297.6471075097744</v>
+        <v>210.1928800706937</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
@@ -36831,28 +36831,28 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>764.5857931088892</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="M29" t="n">
-        <v>922.7419177835574</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
         <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772412</v>
       </c>
       <c r="Q29" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R29" t="n">
         <v>260.8486822662717</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K30" t="n">
-        <v>521.0462990757931</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
         <v>166.4214051299745</v>
@@ -36922,7 +36922,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
@@ -36934,7 +36934,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528251</v>
+        <v>366.7614296783619</v>
       </c>
       <c r="L32" t="n">
-        <v>226.063545835034</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.346826188777</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
         <v>1263.947675153219</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480051</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772412</v>
       </c>
       <c r="Q32" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
         <v>89.98599059651769</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
@@ -37162,16 +37162,16 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>235.509235836781</v>
+        <v>235.5092358367806</v>
       </c>
       <c r="Q35" t="n">
         <v>706.7158040369222</v>
@@ -37384,7 +37384,7 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
@@ -37396,19 +37396,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897509</v>
       </c>
       <c r="R36" t="n">
-        <v>117.0299190450808</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>132.8848040411314</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749455</v>
+        <v>74.65639307884905</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1697006794818</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055939</v>
@@ -37484,7 +37484,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>189.3440015966389</v>
       </c>
       <c r="R37" t="n">
         <v>7.689198871994794</v>
@@ -37621,7 +37621,7 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J39" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
@@ -37633,19 +37633,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897509</v>
       </c>
       <c r="R39" t="n">
-        <v>117.0299190450808</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>352.1901855749455</v>
       </c>
       <c r="L40" t="n">
-        <v>206.079706566041</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P40" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q40" t="n">
         <v>223.6992063869488</v>
@@ -37779,13 +37779,13 @@
         <v>54.81488577372508</v>
       </c>
       <c r="J41" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
         <v>251.5392525235234</v>
@@ -37794,13 +37794,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480051</v>
+        <v>716.9716083539645</v>
       </c>
       <c r="P41" t="n">
-        <v>751.5725302939659</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q41" t="n">
-        <v>190.6525095797374</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J42" t="n">
-        <v>351.3364905475626</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
@@ -38034,10 +38034,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>751.5725302939659</v>
+        <v>235.5092358367801</v>
       </c>
       <c r="Q44" t="n">
-        <v>190.6525095797374</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38095,10 +38095,10 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J45" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>521.0462990757926</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
@@ -38116,7 +38116,7 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.280745504688</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
         <v>47.58835291424953</v>
@@ -38177,13 +38177,13 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L46" t="n">
-        <v>206.079706566041</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M46" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515946</v>
       </c>
       <c r="N46" t="n">
         <v>545.0586979658874</v>
